--- a/maps/RI/RI20C_candidates.xlsx
+++ b/maps/RI/RI20C_candidates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/RI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC5920-5F5F-3442-AFBF-2E961828BA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85DB793-146E-0343-AE9D-4381CBFED6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="6880" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/MT/MT20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/RI/RI20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -129,304 +129,304 @@
     <t>POPDEV</t>
   </si>
   <si>
-    <t>MT20C_I000K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I001K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I002K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I003K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I004K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I005K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I006K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I007K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I008K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I009K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I010K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I011K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I012K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I013K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I014K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I015K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I016K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I017K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I018K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I019K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I020K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I021K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I022K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I023K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I024K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I025K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I026K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I027K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I028K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I029K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I030K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I031K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I032K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I033K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I034K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I035K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I036K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I037K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I038K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I039K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I040K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I041K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I042K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I043K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I044K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I045K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I046K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I047K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I048K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I049K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I050K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I051K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I052K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I053K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I054K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I055K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I056K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I057K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I058K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I059K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I060K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I061K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I062K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I063K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I064K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I065K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I066K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I067K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I068K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I069K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I070K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I071K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I072K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I073K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I074K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I075K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I076K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I077K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I078K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I079K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I080K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I081K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I082K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I083K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I084K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I085K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I086K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I087K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I088K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I089K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I090K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I091K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I092K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I093K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I094K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I095K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I096K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I097K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I098K01N02</t>
-  </si>
-  <si>
-    <t>MT20C_I099K01N02</t>
+    <t>RI20C_I000K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I001K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I002K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I003K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I004K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I005K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I006K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I007K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I008K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I009K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I010K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I011K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I012K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I013K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I014K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I015K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I016K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I017K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I018K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I019K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I020K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I021K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I022K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I023K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I024K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I025K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I026K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I027K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I028K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I029K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I030K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I031K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I032K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I033K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I034K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I035K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I036K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I037K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I038K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I039K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I040K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I041K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I042K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I043K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I044K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I045K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I046K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I047K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I048K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I049K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I050K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I051K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I052K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I053K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I054K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I055K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I056K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I057K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I058K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I059K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I060K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I061K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I062K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I063K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I064K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I065K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I066K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I067K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I068K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I069K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I070K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I071K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I072K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I073K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I074K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I075K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I076K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I077K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I078K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I079K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I080K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I081K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I082K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I083K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I084K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I085K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I086K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I087K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I088K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I089K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I090K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I091K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I092K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I093K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I094K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I095K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I096K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I097K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I098K01N02</t>
+  </si>
+  <si>
+    <t>RI20C_I099K01N02</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
       </c>
       <c r="B4" s="14">
         <f>MIN(DATA!E$2:E$101)</f>
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="C4" s="2">
         <f>MIN(DATA!F$2:F$101)</f>
@@ -934,7 +934,7 @@
       </c>
       <c r="B5" s="14">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="C5" s="2">
         <f>MAX(DATA!F$2:F$101)</f>
@@ -959,7 +959,7 @@
       </c>
       <c r="B6" s="14">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>6.9700000000000014E-3</v>
+        <v>1.2400000000000022E-3</v>
       </c>
       <c r="C6" s="2">
         <f>AVERAGE(DATA!F$2:F$101)</f>
@@ -984,7 +984,7 @@
       </c>
       <c r="B7" s="14">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="C7" s="2">
         <f>MEDIAN(DATA!F$2:F$101)</f>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B8" s="16">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>1.7434626923745965E-18</v>
+        <v>2.1793283654682455E-18</v>
       </c>
       <c r="C8" s="6">
         <f>STDEV(DATA!F$2:F$101)</f>
@@ -1088,9 +1088,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="14" bestFit="1" customWidth="1"/>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="20">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E2" s="21">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E3" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E4" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E5" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E6" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F6" s="14">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E7" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F7" s="14">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E8" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F8" s="14">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E9" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F9" s="14">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E10" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F10" s="14">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E11" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F11" s="14">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E12" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F12" s="14">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E13" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E14" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F14" s="14">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E15" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F15" s="14">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E16" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E17" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F17" s="14">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E18" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E19" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F19" s="14">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E20" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F20" s="14">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E21" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F21" s="14">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E22" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F22" s="14">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E23" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F23" s="14">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E24" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F24" s="14">
         <v>0</v>
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E25" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F25" s="14">
         <v>0</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E26" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F26" s="14">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E27" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F27" s="14">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E28" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F28" s="14">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E29" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F29" s="14">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E30" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F30" s="14">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E31" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F31" s="14">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E32" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F32" s="14">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E33" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F33" s="14">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E34" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F34" s="14">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E35" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F35" s="14">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E36" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F36" s="14">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E37" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F37" s="14">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E38" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F38" s="14">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E39" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F39" s="14">
         <v>0</v>
@@ -2240,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E40" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F40" s="14">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E41" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F41" s="14">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E42" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F42" s="14">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E43" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F43" s="14">
         <v>0</v>
@@ -2356,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E44" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F44" s="14">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E45" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F45" s="14">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E46" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F46" s="14">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E47" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F47" s="14">
         <v>0</v>
@@ -2472,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E48" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F48" s="14">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E49" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F49" s="14">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E50" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F50" s="14">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E51" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F51" s="14">
         <v>0</v>
@@ -2588,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E52" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F52" s="14">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E53" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F53" s="14">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E54" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F54" s="14">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E55" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F55" s="14">
         <v>0</v>
@@ -2704,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E56" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F56" s="14">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E57" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F57" s="14">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E58" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F58" s="14">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E59" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F59" s="14">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E60" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F60" s="14">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E61" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F61" s="14">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E62" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F62" s="14">
         <v>0</v>
@@ -2907,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E63" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F63" s="14">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E64" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F64" s="14">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E65" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F65" s="14">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E66" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F66" s="14">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E67" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F67" s="14">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E68" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F68" s="14">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E69" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F69" s="14">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E70" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F70" s="14">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E71" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F71" s="14">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E72" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F72" s="14">
         <v>0</v>
@@ -3197,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E73" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F73" s="14">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E74" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F74" s="14">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E75" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F75" s="14">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E76" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F76" s="14">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E77" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F77" s="14">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E78" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F78" s="14">
         <v>0</v>
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E79" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F79" s="14">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E80" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F80" s="14">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E81" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F81" s="14">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E82" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F82" s="14">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E83" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F83" s="14">
         <v>0</v>
@@ -3516,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E84" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F84" s="14">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E85" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F85" s="14">
         <v>0</v>
@@ -3574,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E86" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F86" s="14">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E87" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F87" s="14">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E88" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F88" s="14">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E89" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F89" s="14">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E90" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F90" s="14">
         <v>0</v>
@@ -3719,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E91" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F91" s="14">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E92" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F92" s="14">
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E93" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F93" s="14">
         <v>0</v>
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E94" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F94" s="14">
         <v>0</v>
@@ -3835,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E95" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F95" s="14">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E96" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F96" s="14">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E97" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F97" s="14">
         <v>0</v>
@@ -3922,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E98" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F98" s="14">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E99" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F99" s="14">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E100" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F100" s="14">
         <v>0</v>
@@ -4009,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="27">
-        <v>3692753.633256</v>
+        <v>26194.220698000001</v>
       </c>
       <c r="E101" s="14">
-        <v>6.9699999999999996E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F101" s="14">
         <v>0</v>
